--- a/app/Console/Commands/resources/menus.xlsx
+++ b/app/Console/Commands/resources/menus.xlsx
@@ -18,14 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="314">
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
   <si>
     <t>CATEGORIA</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>PRODUCTO</t>
   </si>
   <si>
@@ -38,21 +38,36 @@
     <t>URL MAPAS</t>
   </si>
   <si>
+    <t>BEBIDAS</t>
+  </si>
+  <si>
+    <t>COMIDAS</t>
+  </si>
+  <si>
+    <t>ENCHILADAS SUIZAS (4)</t>
+  </si>
+  <si>
+    <t>$60</t>
+  </si>
+  <si>
+    <t>RED BULL</t>
+  </si>
+  <si>
+    <t>suizas.jpg</t>
+  </si>
+  <si>
+    <t>$30</t>
+  </si>
+  <si>
+    <t>redbull.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/Cafeter%C3%ADa/@25.7277613,-100.3111364,17z/data=!4m8!1m2!2m1!1scafeter%C3%ADa+facpya+ciudad+universitaria+san+nicol%C3%A1s+de+los+garza+n.l!3m4!1s0x0:0x9b1c8f7d76fae54f!8m2!3d25.727588!4d-100.309411</t>
+  </si>
+  <si>
     <t>ALMUERZOS</t>
   </si>
   <si>
-    <t>COMIDAS</t>
-  </si>
-  <si>
-    <t>ENCHILADAS SUIZAS (4)</t>
-  </si>
-  <si>
-    <t>$60</t>
-  </si>
-  <si>
-    <t>suizas.jpg</t>
-  </si>
-  <si>
     <t>HUEVOS AL GUSTO</t>
   </si>
   <si>
@@ -62,25 +77,10 @@
     <t>huevos.jpg</t>
   </si>
   <si>
-    <t>BEBIDAS</t>
-  </si>
-  <si>
-    <t>RED BULL</t>
-  </si>
-  <si>
-    <t>$30</t>
-  </si>
-  <si>
-    <t>redbull.jpg</t>
-  </si>
-  <si>
-    <t>· https://www.google.com.mx/maps/place/Cafeter%C3%ADa/@25.7277613,-100.3111364,17z/data=!4m8!1m2!2m1!1scafeter%C3%ADa+facpya+ciudad+universitaria+san+nicol%C3%A1s+de+los+garza+n.l!3m4!1s0x0:0x9b1c8f7d76fae54f!8m2!3d25.727588!4d-100.309411</t>
-  </si>
-  <si>
-    <t>· https://www.google.com.mx/maps/place/Cafeteria+Filosofia+y+Letras/@25.7290035,-100.3091567,17z/data=!3m1!4b1!4m5!3m4!1s0x8662945396e136af:0x99b2536497dbcd4d!8m2!3d25.7290035!4d-100.3091567</t>
-  </si>
-  <si>
-    <t>· https://www.google.com.mx/maps/place/Cafeter%C3%ADa/@25.7248249,-100.3145295,19z/data=!4m5!3m4!1s0x86629452f713ad5d:0x581b445dc92f500b!8m2!3d25.7248249!4d-100.3139989</t>
+    <t>https://www.google.com.mx/maps/place/Cafeter%C3%ADa/@25.7248249,-100.3145295,19z/data=!4m5!3m4!1s0x86629452f713ad5d:0x581b445dc92f500b!8m2!3d25.7248249!4d-100.3139989</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/Cafeteria+Filosofia+y+Letras/@25.7290035,-100.3091567,17z/data=!3m1!4b1!4m5!3m4!1s0x8662945396e136af:0x99b2536497dbcd4d!8m2!3d25.7290035!4d-100.3091567</t>
   </si>
   <si>
     <t>ENTOMATADAS (4)</t>
@@ -101,15 +101,15 @@
     <t>CHILAQUILES</t>
   </si>
   <si>
+    <t>$50</t>
+  </si>
+  <si>
+    <t>discada.jpg</t>
+  </si>
+  <si>
     <t>licuados.jpg</t>
   </si>
   <si>
-    <t>$50</t>
-  </si>
-  <si>
-    <t>discada.jpg</t>
-  </si>
-  <si>
     <t>NOMBRE COMPLETO</t>
   </si>
   <si>
@@ -119,175 +119,244 @@
     <t>CAFE</t>
   </si>
   <si>
+    <t>$12</t>
+  </si>
+  <si>
     <t>ASADO</t>
   </si>
   <si>
-    <t>$12</t>
-  </si>
-  <si>
     <t>cafe.jpg</t>
   </si>
   <si>
+    <t>CHANGOS</t>
+  </si>
+  <si>
     <t>asado.jpg</t>
   </si>
   <si>
+    <t>$55</t>
+  </si>
+  <si>
+    <t>AGUA DE FRUTA</t>
+  </si>
+  <si>
+    <t>$18</t>
+  </si>
+  <si>
     <t>Facultad de Ingeniería Civil</t>
   </si>
   <si>
-    <t>CHANGOS</t>
-  </si>
-  <si>
-    <t>$55</t>
+    <t>aguafruta.jpg</t>
+  </si>
+  <si>
+    <t>Facultad de Contaduría Pública y Administración</t>
   </si>
   <si>
     <t>GORDITAS (4)</t>
   </si>
   <si>
-    <t>AGUA DE FRUTA</t>
-  </si>
-  <si>
-    <t>$18</t>
+    <t>COCTEL DE FRUTAS</t>
   </si>
   <si>
     <t>gorditas.jpg</t>
   </si>
   <si>
-    <t>aguafruta.jpg</t>
+    <t>HOT CAKES</t>
   </si>
   <si>
     <t>POLLO CON CREMA</t>
   </si>
   <si>
-    <t>Facultad de Contaduría Pública y Administración</t>
-  </si>
-  <si>
-    <t>COCTEL DE FRUTAS</t>
+    <t>coctelfruta.jpg</t>
+  </si>
+  <si>
+    <t>hotcakes.jpg</t>
   </si>
   <si>
     <t>pollocrema.jpg</t>
   </si>
   <si>
-    <t>HOT CAKES</t>
+    <t>BISQUET PREPARADO</t>
+  </si>
+  <si>
+    <t>Facultad de Filosofía y Letras</t>
+  </si>
+  <si>
+    <t>$20</t>
+  </si>
+  <si>
+    <t>bisquet.jpg</t>
   </si>
   <si>
     <t>PICADILLO</t>
   </si>
   <si>
+    <t>MOLLETES</t>
+  </si>
+  <si>
+    <t>molletes.jpg</t>
+  </si>
+  <si>
     <t>picadillo.jpg</t>
   </si>
   <si>
-    <t>hotcakes.jpg</t>
-  </si>
-  <si>
-    <t>coctelfruta.jpg</t>
+    <t>COCTEL DE FRUTAS PREPARADO</t>
+  </si>
+  <si>
+    <t>HUEVOS AL GUSTO C/ REFRESCO</t>
+  </si>
+  <si>
+    <t>$35</t>
   </si>
   <si>
     <t>SOPES (4)</t>
   </si>
   <si>
-    <t>Facultad de Filosofía y Letras</t>
-  </si>
-  <si>
-    <t>BISQUET PREPARADO</t>
+    <t>coctelpreparadp.jpg</t>
+  </si>
+  <si>
+    <t>SINCRONIZADAS C/PAPAS</t>
   </si>
   <si>
     <t>sopes.jpg</t>
   </si>
   <si>
-    <t>$20</t>
-  </si>
-  <si>
-    <t>bisquet.jpg</t>
+    <t>sincronizadas.jpg</t>
+  </si>
+  <si>
+    <t>SANDWICH C/PAPAS</t>
+  </si>
+  <si>
+    <t>sandwichpapas.jpg</t>
   </si>
   <si>
     <t>ALBÓNDIGAS (6)</t>
   </si>
   <si>
-    <t>MOLLETES</t>
-  </si>
-  <si>
-    <t>COCTEL DE FRUTAS PREPARADO</t>
+    <t>HOT DOG C/PAPAS</t>
+  </si>
+  <si>
+    <t>SINCRONIZADA C/PAPAS</t>
   </si>
   <si>
     <t>albondigas.jpg</t>
   </si>
   <si>
-    <t>$35</t>
-  </si>
-  <si>
-    <t>molletes.jpg</t>
+    <t>hotdogpapas.jpg</t>
+  </si>
+  <si>
+    <t>HAMBURGESA C/PAPAS Y REFRESCO</t>
   </si>
   <si>
     <t>CORTADILLO</t>
   </si>
   <si>
-    <t>coctelpreparadp.jpg</t>
+    <t>$47</t>
+  </si>
+  <si>
+    <t>hamburguesapapasre.jpg</t>
   </si>
   <si>
     <t>cortadillo.jpg</t>
   </si>
   <si>
-    <t>HUEVOS AL GUSTO C/ REFRESCO</t>
+    <t>TORTA C/PAPAS Y REFRESCO</t>
+  </si>
+  <si>
+    <t>PAPAS A LA FRANCESA</t>
+  </si>
+  <si>
+    <t>tortapapas.jpg</t>
   </si>
   <si>
     <t>CHILAQUILES CHICOS</t>
   </si>
   <si>
-    <t>SINCRONIZADAS C/PAPAS</t>
-  </si>
-  <si>
-    <t>sincronizadas.jpg</t>
+    <t>papas.jpg</t>
+  </si>
+  <si>
+    <t>GORDITAS</t>
+  </si>
+  <si>
+    <t>$14</t>
+  </si>
+  <si>
+    <t>HAMBURGUESA C/PAPAS</t>
+  </si>
+  <si>
+    <t>$40</t>
+  </si>
+  <si>
+    <t>COMIDA DEL DIA</t>
+  </si>
+  <si>
+    <t>$65</t>
+  </si>
+  <si>
+    <t>TORTA C/PAPAS</t>
   </si>
   <si>
     <t>CHILAQUILES GRANDES</t>
   </si>
   <si>
-    <t>SANDWICH C/PAPAS</t>
-  </si>
-  <si>
-    <t>sandwichpapas.jpg</t>
+    <t>MILANESA DE RES</t>
+  </si>
+  <si>
+    <t>$70</t>
+  </si>
+  <si>
+    <t>milanesa-de-res.jpg</t>
+  </si>
+  <si>
+    <t>BISTEC A LA PARRILLA</t>
   </si>
   <si>
     <t>MILANESA EMPANIZADA</t>
   </si>
   <si>
-    <t>$70</t>
-  </si>
-  <si>
-    <t>HOT DOG C/PAPAS</t>
-  </si>
-  <si>
-    <t>milanesa-de-res.jpg</t>
-  </si>
-  <si>
-    <t>hotdogpapas.jpg</t>
+    <t>bistec.jpg</t>
   </si>
   <si>
     <t>FAJITA A LA PLANCHA (RES)</t>
   </si>
   <si>
-    <t>HAMBURGESA C/PAPAS Y REFRESCO</t>
-  </si>
-  <si>
-    <t>SINCRONIZADA C/PAPAS</t>
+    <t>TACOS</t>
+  </si>
+  <si>
+    <t>AL VAPOR</t>
+  </si>
+  <si>
+    <t>PAPAS CRISSCUT</t>
+  </si>
+  <si>
+    <t>$7</t>
   </si>
   <si>
     <t>fajitared.jpg</t>
   </si>
   <si>
-    <t>$47</t>
-  </si>
-  <si>
-    <t>hamburguesapapasre.jpg</t>
+    <t>tacosalvapor.jpg</t>
+  </si>
+  <si>
+    <t>papascrisscut.jpg</t>
   </si>
   <si>
     <t>FAJITA A LA PLANCHA (POLLO)</t>
   </si>
   <si>
+    <t>PREPARADOS</t>
+  </si>
+  <si>
+    <t>PAPAS MUNCHER</t>
+  </si>
+  <si>
+    <t>tacos.jpg</t>
+  </si>
+  <si>
     <t>fajitapollo.jpg</t>
   </si>
   <si>
-    <t>TORTA C/PAPAS Y REFRESCO</t>
+    <t>muncher.jpg</t>
   </si>
   <si>
     <t>CORTE DE RES A LA PLANCHA</t>
@@ -296,37 +365,52 @@
     <t>$80</t>
   </si>
   <si>
-    <t>tortapapas.jpg</t>
+    <t>AGUAS FRESCAS</t>
+  </si>
+  <si>
+    <t>$17</t>
+  </si>
+  <si>
+    <t>corte.jpg</t>
+  </si>
+  <si>
+    <t>CAFÉ</t>
+  </si>
+  <si>
+    <t>$8</t>
   </si>
   <si>
     <t>COCA COLA</t>
   </si>
   <si>
-    <t>$14</t>
-  </si>
-  <si>
-    <t>GORDITAS</t>
+    <t>VASO DE REFRESCO</t>
+  </si>
+  <si>
+    <t>$10</t>
+  </si>
+  <si>
+    <t>coca.jpg</t>
+  </si>
+  <si>
+    <t>refresco.jpg</t>
   </si>
   <si>
     <t>JOYAS DE SABOR</t>
   </si>
   <si>
-    <t>COMIDA DEL DIA</t>
+    <t>joya.jpg</t>
   </si>
   <si>
     <t>SPRITE</t>
   </si>
   <si>
-    <t>$65</t>
+    <t>sprite.jpg</t>
   </si>
   <si>
     <t>FRESCA</t>
   </si>
   <si>
-    <t>MILANESA DE RES</t>
-  </si>
-  <si>
-    <t>PAPAS A LA FRANCESA</t>
+    <t>fresca.jpg</t>
   </si>
   <si>
     <t>JUGOS VALLE FRUIT</t>
@@ -335,16 +419,13 @@
     <t>$16</t>
   </si>
   <si>
-    <t>BISTEC A LA PARRILLA</t>
-  </si>
-  <si>
-    <t>papas.jpg</t>
+    <t>jugos.jpg</t>
   </si>
   <si>
     <t>FUZE TEA</t>
   </si>
   <si>
-    <t>bistec.jpg</t>
+    <t>fuze.jpg</t>
   </si>
   <si>
     <t>PEÑAFIEL</t>
@@ -353,268 +434,322 @@
     <t>$15</t>
   </si>
   <si>
-    <t>HAMBURGUESA C/PAPAS</t>
-  </si>
-  <si>
-    <t>$40</t>
+    <t>penafiel.jpg</t>
   </si>
   <si>
     <t>DR PEPPER</t>
   </si>
   <si>
-    <t>PAPAS CRISSCUT</t>
-  </si>
-  <si>
-    <t>papascrisscut.jpg</t>
+    <t>drpepper.jpg</t>
   </si>
   <si>
     <t>SCHWEPPERS</t>
   </si>
   <si>
-    <t>PAPAS MUNCHER</t>
+    <t>schweppes.jpg</t>
   </si>
   <si>
     <t>TOPOCHICO</t>
   </si>
   <si>
-    <t>muncher.jpg</t>
-  </si>
-  <si>
-    <t>TORTA C/PAPAS</t>
+    <t>topochico.jpg</t>
   </si>
   <si>
     <t>AGUA NATURAL 1L</t>
   </si>
   <si>
-    <t>TACOS</t>
-  </si>
-  <si>
-    <t>AL VAPOR</t>
-  </si>
-  <si>
-    <t>$7</t>
+    <t>agua.jpg</t>
   </si>
   <si>
     <t>MORELOS</t>
   </si>
   <si>
-    <t>tacosalvapor.jpg</t>
-  </si>
-  <si>
     <t>$13</t>
   </si>
   <si>
-    <t>PREPARADOS</t>
-  </si>
-  <si>
-    <t>tacos.jpg</t>
-  </si>
-  <si>
-    <t>AGUAS FRESCAS</t>
-  </si>
-  <si>
-    <t>$17</t>
-  </si>
-  <si>
-    <t>CAFÉ</t>
-  </si>
-  <si>
-    <t>$8</t>
-  </si>
-  <si>
-    <t>VASO DE REFRESCO</t>
-  </si>
-  <si>
-    <t>$10</t>
-  </si>
-  <si>
-    <t>refresco.jpg</t>
-  </si>
-  <si>
-    <t>· https://www.google.com.mx/maps/place/Ni%C3%B1os+H%C3%A9roes,+Ciudad+Universitaria,+San+Nicol%C3%A1s+de+los+Garza,+N.L./@25.7246685,-100.3148357,18z/data=!3m1!4b1!4m12!1m6!3m5!1s0x8662945396e136af:0x99b2536497dbcd4d!2sCafeteria+Filosofia+y+Letras!8m2!3d25.7290035!4d-100.3091567!3m4!1s0x866294528a5f80f7:0x784e3981d3bd6978!8m2!3d25.7246461!4d-100.3147973</t>
+    <t>https://www.google.com.mx/maps/place/Ni%C3%B1os+H%C3%A9roes,+Ciudad+Universitaria,+San+Nicol%C3%A1s+de+los+Garza,+N.L./@25.7246685,-100.3148357,18z/data=!3m1!4b1!4m12!1m6!3m5!1s0x8662945396e136af:0x99b2536497dbcd4d!2sCafeteria+Filosofia+y+Letras!8m2!3d25.7290035!4d-100.3091567!3m4!1s0x866294528a5f80f7:0x784e3981d3bd6978!8m2!3d25.7246461!4d-100.3147973</t>
   </si>
   <si>
     <t xml:space="preserve">1/2 CHILAQUILES </t>
   </si>
   <si>
+    <t>SANDWICH POLLO C/PAPAS</t>
+  </si>
+  <si>
+    <t>sandwichpollopapas.jpg</t>
+  </si>
+  <si>
+    <t>SANDWICH JAMON C/PAPAS</t>
+  </si>
+  <si>
+    <t>sandwichjamonpapas.jpg</t>
+  </si>
+  <si>
+    <t>Facultad de Ciencias Químicas</t>
+  </si>
+  <si>
+    <t>CUERNITO C/PAPAS</t>
+  </si>
+  <si>
+    <t>cuernito.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLLETES (2) </t>
+  </si>
+  <si>
+    <t>MOLLETES C/PAPAS Y CHORIZO</t>
+  </si>
+  <si>
+    <t>ENMOLADAS</t>
+  </si>
+  <si>
+    <t>enmoladas.jpg</t>
+  </si>
+  <si>
+    <t>ENTOMATADAS</t>
+  </si>
+  <si>
+    <t>ENCHILADAS SUIZAS</t>
+  </si>
+  <si>
+    <t>PIRATA C/PAPAS</t>
+  </si>
+  <si>
+    <t>pirata.jpg</t>
+  </si>
+  <si>
+    <t>HOTDOG C/PAPAS</t>
+  </si>
+  <si>
+    <t>TOSTADA SIBERIA</t>
+  </si>
+  <si>
+    <t>tostadasiberia.jpg</t>
+  </si>
+  <si>
+    <t>MILANESA DE POLLO</t>
+  </si>
+  <si>
+    <t>milanesapollo.jpg</t>
+  </si>
+  <si>
+    <t>PAPAS SENCILLAS</t>
+  </si>
+  <si>
+    <t>PAPAS C/QUESO</t>
+  </si>
+  <si>
+    <t>papasqueso.jpg</t>
+  </si>
+  <si>
+    <t>VASO DE AGUA 350ml</t>
+  </si>
+  <si>
+    <t>PAPAS PREPARADAS (QUESO Y CARNE)</t>
+  </si>
+  <si>
+    <t>vasoagua.jpg</t>
+  </si>
+  <si>
+    <t>papasquespycarne.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/FTSYDH+-+Facultad+de+Trabajo+Social+y+Desarrollo+Humano/@25.727823,-100.3102689,19z/data=!4m5!3m4!1s0x8662945319d11f43:0x525264f875a849b4!8m2!3d25.727823!4d-100.309879</t>
+  </si>
+  <si>
+    <t>ENSALADA DE POLLO</t>
+  </si>
+  <si>
+    <t>ensalada-de-pollo.jpg</t>
+  </si>
+  <si>
+    <t>ENSALADA CODITO Y ATUN</t>
+  </si>
+  <si>
+    <t>VASO DE AGUA 500ml</t>
+  </si>
+  <si>
+    <t>ensaladacoditosatun.jpg</t>
+  </si>
+  <si>
+    <t>VASO DE AGUA 1L</t>
+  </si>
+  <si>
     <t>IMPAGEN</t>
   </si>
   <si>
-    <t>SANDWICH POLLO C/PAPAS</t>
-  </si>
-  <si>
-    <t>SANDWICH JAMON C/PAPAS</t>
-  </si>
-  <si>
     <t>DESAYUNOS</t>
   </si>
   <si>
+    <t>LICUADO MEDIANO</t>
+  </si>
+  <si>
     <t>HOT CAKES (2)</t>
   </si>
   <si>
-    <t>Facultad de Ciencias Químicas</t>
-  </si>
-  <si>
-    <t>CUERNITO C/PAPAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLLETES (2) </t>
-  </si>
-  <si>
-    <t>· https://www.google.com.mx/maps/place/Pedro+de+Alba,+Ni%C3%B1os+H%C3%A9roes,+Ciudad+Universitaria,+San+Nicol%C3%A1s+de+los+Garza,+N.L./@25.724333,-100.3159648,17z/data=!3m1!4b1!4m8!1m2!2m1!1scafeteria+ciencias+biologicas+cuidad+universitaria!3m4!1s0x8662944d7a4933a1:0xa9a148ee5f45ab6!8m2!3d25.724138!4d-100.3161564</t>
-  </si>
-  <si>
-    <t>MOLLETES C/PAPAS Y CHORIZO</t>
-  </si>
-  <si>
-    <t>ENMOLADAS</t>
+    <t>$22</t>
+  </si>
+  <si>
+    <t>MAIZ</t>
+  </si>
+  <si>
+    <t>Facultad de Trabajo Social y Derechos Humanos</t>
+  </si>
+  <si>
+    <t>tacomaiz.jpg</t>
+  </si>
+  <si>
+    <t>JUGO DE NARANJA</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/Pedro+de+Alba,+Ni%C3%B1os+H%C3%A9roes,+Ciudad+Universitaria,+San+Nicol%C3%A1s+de+los+Garza,+N.L./@25.724333,-100.3159648,17z/data=!3m1!4b1!4m8!1m2!2m1!1scafeteria+ciencias+biologicas+cuidad+universitaria!3m4!1s0x8662944d7a4933a1:0xa9a148ee5f45ab6!8m2!3d25.724138!4d-100.3161564</t>
+  </si>
+  <si>
+    <t>jugodenaranja.jpg</t>
+  </si>
+  <si>
+    <t>HARINA</t>
+  </si>
+  <si>
+    <t>$9</t>
+  </si>
+  <si>
+    <t>CHOCOMILK</t>
+  </si>
+  <si>
+    <t>tacoharina.jpg</t>
+  </si>
+  <si>
+    <t>chocomilk.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">TACOS </t>
   </si>
   <si>
-    <t>VASO DE AGUA 350ml</t>
-  </si>
-  <si>
-    <t>ENTOMATADAS</t>
-  </si>
-  <si>
-    <t>HARINA</t>
-  </si>
-  <si>
-    <t>$9</t>
-  </si>
-  <si>
-    <t>ENCHILADAS SUIZAS</t>
-  </si>
-  <si>
-    <t>· https://www.google.com.mx/maps/place/FTSYDH+-+Facultad+de+Trabajo+Social+y+Desarrollo+Humano/@25.727823,-100.3102689,19z/data=!4m5!3m4!1s0x8662945319d11f43:0x525264f875a849b4!8m2!3d25.727823!4d-100.309879</t>
-  </si>
-  <si>
-    <t>MAIZ</t>
-  </si>
-  <si>
-    <t>PIRATA C/PAPAS</t>
-  </si>
-  <si>
-    <t>HOTDOG C/PAPAS</t>
-  </si>
-  <si>
-    <t>TOSTADA SIBERIA</t>
-  </si>
-  <si>
-    <t>MILANESA DE POLLO</t>
-  </si>
-  <si>
-    <t>VASO DE AGUA 500ml</t>
+    <t>POSTRES</t>
+  </si>
+  <si>
+    <t>ARROZ CON LECHE</t>
+  </si>
+  <si>
+    <t>arroz-con-leche.jpg</t>
+  </si>
+  <si>
+    <t>PAY DE LIMON</t>
+  </si>
+  <si>
+    <t>paydelimon.jpg</t>
+  </si>
+  <si>
+    <t>PAY DE QUESO</t>
+  </si>
+  <si>
+    <t>paydequeso.jpg</t>
   </si>
   <si>
     <t>Facultad de Ciencias Biológicas</t>
   </si>
   <si>
-    <t>PAPAS SENCILLAS</t>
-  </si>
-  <si>
-    <t>PAPAS C/QUESO</t>
-  </si>
-  <si>
-    <t>VASO DE AGUA 1L</t>
+    <t>GELATINA</t>
+  </si>
+  <si>
+    <t>gelatina.jpg</t>
   </si>
   <si>
     <t>COMIDA DEL DIA CON AGUA</t>
   </si>
   <si>
-    <t>PAPAS PREPARADAS (QUESO Y CARNE)</t>
-  </si>
-  <si>
     <t>BURRITOS</t>
   </si>
   <si>
-    <t>ENSALADA DE POLLO</t>
-  </si>
-  <si>
-    <t>ENSALADA CODITO Y ATUN</t>
+    <t>HOT CAKES (3)</t>
   </si>
   <si>
     <t>burritos.jpg</t>
   </si>
   <si>
-    <t>LICUADO MEDIANO</t>
-  </si>
-  <si>
-    <t>$22</t>
-  </si>
-  <si>
-    <t>Facultad de Trabajo Social y Derechos Humanos</t>
+    <t>MACHACADO CON HUEVO</t>
+  </si>
+  <si>
+    <t>$36</t>
   </si>
   <si>
     <t>HAMBURGUESA CON PAPAS</t>
   </si>
   <si>
-    <t>JUGO DE NARANJA</t>
+    <t>machacadoconhuevo.jpg</t>
   </si>
   <si>
     <t>hamburguesa.jpg</t>
   </si>
   <si>
-    <t>CHOCOMILK</t>
-  </si>
-  <si>
-    <t>POSTRES</t>
-  </si>
-  <si>
-    <t>ARROZ CON LECHE</t>
+    <t>MOLLETE DULCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLLETE </t>
   </si>
   <si>
     <t>ENSALADAS</t>
   </si>
   <si>
-    <t>PAY DE LIMON</t>
+    <t>MOLLETE DE GUISADO</t>
+  </si>
+  <si>
+    <t>ensalada.jpg</t>
   </si>
   <si>
     <t>CHILLI DOG</t>
   </si>
   <si>
-    <t>PAY DE QUESO</t>
+    <t>BURRITO MACHACA C/HUEVO G</t>
+  </si>
+  <si>
+    <t>chiligog.jpg</t>
+  </si>
+  <si>
+    <t>BURRITO MACHACA C/HUEVO J</t>
   </si>
   <si>
     <t>PIZZA</t>
   </si>
   <si>
-    <t>GELATINA</t>
+    <t>pizza.jpg</t>
+  </si>
+  <si>
+    <t>HUEVO C/ CHILAQUILES Y FRIJOLES</t>
   </si>
   <si>
     <t>SANDWICH</t>
   </si>
   <si>
-    <t>HOT CAKES (3)</t>
-  </si>
-  <si>
-    <t>MACHACADO CON HUEVO</t>
-  </si>
-  <si>
-    <t>$36</t>
-  </si>
-  <si>
-    <t>MOLLETE DULCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLLETE </t>
-  </si>
-  <si>
-    <t>MOLLETE DE GUISADO</t>
-  </si>
-  <si>
-    <t>BURRITO MACHACA C/HUEVO G</t>
+    <t>1/2 CHILAQUILES</t>
+  </si>
+  <si>
+    <t>VASO DE FRUTA 1L C/GRANOLA Y YOGURT</t>
+  </si>
+  <si>
+    <t>vasodefruta.jpg</t>
+  </si>
+  <si>
+    <t>TORTA</t>
+  </si>
+  <si>
+    <t>torta.jpg</t>
   </si>
   <si>
     <t>AGUA FRESCA</t>
   </si>
   <si>
+    <t>HOT DOGS (2)</t>
+  </si>
+  <si>
+    <t>hotdog.jpg</t>
+  </si>
+  <si>
     <t>EXTRA</t>
   </si>
   <si>
-    <t>BURRITO MACHACA C/HUEVO J</t>
+    <t>SINCRONIZADAS MAIZ</t>
   </si>
   <si>
     <t>TORTILLAS</t>
@@ -623,39 +758,36 @@
     <t>$5</t>
   </si>
   <si>
-    <t>HUEVO C/ CHILAQUILES Y FRIJOLES</t>
+    <t>tortillas.jpg</t>
+  </si>
+  <si>
+    <t>SINCRONIZADAS HARINA</t>
   </si>
   <si>
     <t>QUESO</t>
   </si>
   <si>
-    <t>1/2 CHILAQUILES</t>
-  </si>
-  <si>
-    <t>VASO DE FRUTA 1L C/GRANOLA Y YOGURT</t>
-  </si>
-  <si>
-    <t>TORTA</t>
-  </si>
-  <si>
-    <t>HOT DOGS (2)</t>
-  </si>
-  <si>
-    <t>SINCRONIZADAS MAIZ</t>
-  </si>
-  <si>
-    <t>SINCRONIZADAS HARINA</t>
+    <t>queso.jpg</t>
   </si>
   <si>
     <t>GRINGAS</t>
   </si>
   <si>
+    <t>gringas.jpg</t>
+  </si>
+  <si>
     <t>QUESADILLA SENCILLA</t>
   </si>
   <si>
+    <t>quesadilla.jpg</t>
+  </si>
+  <si>
     <t>NUGET DE POLLO C/PAPAS</t>
   </si>
   <si>
+    <t>nuggetspollo.jpg</t>
+  </si>
+  <si>
     <t>SANDWICH DE JAMON</t>
   </si>
   <si>
@@ -665,18 +797,30 @@
     <t>$26</t>
   </si>
   <si>
+    <t>guisado.jpg</t>
+  </si>
+  <si>
     <t>TOSTADAS</t>
   </si>
   <si>
+    <t>tostadas.jpg</t>
+  </si>
+  <si>
     <t>BANDERILLAS</t>
   </si>
   <si>
+    <t>banderillas.jpg</t>
+  </si>
+  <si>
     <t>TORTA DE JAMON</t>
   </si>
   <si>
     <t>QUESADILLA DE GUISADO</t>
   </si>
   <si>
+    <t>quesadillag.jpg</t>
+  </si>
+  <si>
     <t>DE GUISO DEL DIA</t>
   </si>
   <si>
@@ -686,6 +830,9 @@
     <t>AL PASTOR</t>
   </si>
   <si>
+    <t>tacosalpastor.jpg</t>
+  </si>
+  <si>
     <t>AL VAPOR (5)</t>
   </si>
   <si>
@@ -704,6 +851,9 @@
     <t>PEPSI 600ml</t>
   </si>
   <si>
+    <t>pepsi.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">JUGO DE NARANJA </t>
   </si>
   <si>
@@ -713,6 +863,9 @@
     <t xml:space="preserve">LIMONADA </t>
   </si>
   <si>
+    <t>limonada.png</t>
+  </si>
+  <si>
     <t>CAFE NEGRO</t>
   </si>
   <si>
@@ -728,6 +881,12 @@
     <t>EMPALMES</t>
   </si>
   <si>
+    <t>empalmes.jpg</t>
+  </si>
+  <si>
+    <t>gelatina-jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENSALADA FRIA </t>
   </si>
   <si>
@@ -737,22 +896,37 @@
     <t>$39</t>
   </si>
   <si>
+    <t>tenders.jpg</t>
+  </si>
+  <si>
     <t>HAMBURGUEZA</t>
   </si>
   <si>
     <t>ASADO DE PUERCO</t>
   </si>
   <si>
+    <t>asasdo.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMIDAS </t>
   </si>
   <si>
     <t>CHILE RELLENOS</t>
   </si>
   <si>
+    <t>chilesrellenos.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">LICUADOS </t>
   </si>
   <si>
-    <t xml:space="preserve"> CIEL 600 ml</t>
+    <t>https://www.google.com.mx/maps/place/FCFM+-+Facultad+de+Ciencias+F%C3%ADsico+Matem%C3%A1ticas/@25.7253376,-100.3157028,19.47z/data=!4m12!1m6!3m5!1s0x8662945252757dc1:0x79b183284cfe7bc9!2sCafeter%C3%ADa+FIME!8m2!3d25.7255564!4d-100.3135605!3m4!1s0x0:0x8c982757dda91d20!8m2!3d25.7255559!4d-100.3151563</t>
+  </si>
+  <si>
+    <t>CIEL 600 ml</t>
+  </si>
+  <si>
+    <t>aguaciel.jpg</t>
   </si>
   <si>
     <t>REFRESCOS</t>
@@ -767,10 +941,25 @@
     <t>PAN DULCE</t>
   </si>
   <si>
+    <t>pandulce.jpg</t>
+  </si>
+  <si>
     <t>GALLETAS</t>
   </si>
   <si>
-    <t>DESYUNOS</t>
+    <t>galletas.jpg</t>
+  </si>
+  <si>
+    <t>$23</t>
+  </si>
+  <si>
+    <t>ALITAS DE POLLO</t>
+  </si>
+  <si>
+    <t>SANDWICH DE HUEVO</t>
+  </si>
+  <si>
+    <t>BURRIPIZZA</t>
   </si>
 </sst>
 </file>
@@ -810,8 +999,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4A7D6"/>
-        <bgColor rgb="FFB4A7D6"/>
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
     <fill>
@@ -822,8 +1011,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -834,14 +1023,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
@@ -876,11 +1065,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -966,42 +1155,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
@@ -1009,98 +1198,98 @@
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>46</v>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1108,13 +1297,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1122,13 +1311,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1136,13 +1325,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>80</v>
+      <c r="D12" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1150,13 +1339,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1164,13 +1353,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -1178,13 +1367,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>86</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -1192,10 +1381,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -1203,13 +1392,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -1217,13 +1406,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -1231,13 +1420,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -1245,13 +1434,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>115</v>
+        <v>88</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -1259,41 +1448,41 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1325,124 +1514,124 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -1450,13 +1639,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1464,13 +1653,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1478,13 +1667,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>80</v>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -1492,13 +1681,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1506,13 +1695,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1520,13 +1709,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -1534,10 +1723,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -1545,13 +1734,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -1559,13 +1748,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -1573,46 +1762,46 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
+        <v>86</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>23</v>
@@ -1620,77 +1809,77 @@
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>27</v>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>116</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>44</v>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1718,12 +1907,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="31.29"/>
+    <col customWidth="1" min="4" max="4" width="18.29"/>
     <col customWidth="1" min="5" max="5" width="29.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1748,11 +1938,11 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1765,7 +1955,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1779,8 +1969,8 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1791,16 +1981,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1808,13 +1998,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1822,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1836,13 +2026,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1850,13 +2040,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>57</v>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1864,13 +2054,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>63</v>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1878,13 +2068,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>68</v>
+      <c r="D11" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -1892,12 +2082,12 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1906,12 +2096,12 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1920,13 +2110,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -1934,13 +2124,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1948,13 +2138,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -1962,142 +2152,178 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>114</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>132</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>104</v>
+        <v>132</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>132</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2124,65 +2350,72 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="29.0"/>
+    <col customWidth="1" min="4" max="4" width="17.71"/>
     <col customWidth="1" min="5" max="5" width="29.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>197</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2191,13 +2424,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>163</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6">
@@ -2205,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -2216,13 +2449,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>88</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -2230,13 +2463,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>178</v>
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9">
@@ -2247,7 +2480,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -2255,10 +2491,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -2266,10 +2505,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="12">
@@ -2277,21 +2519,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -2299,65 +2547,83 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>245</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2384,12 +2650,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="39.14"/>
+    <col customWidth="1" min="4" max="4" width="23.14"/>
     <col customWidth="1" min="5" max="5" width="29.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
@@ -2406,38 +2673,47 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>30</v>
@@ -2445,71 +2721,89 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11">
@@ -2517,10 +2811,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2528,10 +2825,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2539,21 +2839,27 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -2561,10 +2867,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -2572,10 +2881,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -2583,10 +2895,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2594,10 +2909,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -2605,21 +2923,27 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21">
@@ -2627,10 +2951,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -2638,10 +2965,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="23">
@@ -2649,10 +2979,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -2660,7 +2993,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
@@ -2668,24 +3001,30 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>154</v>
+        <v>197</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2712,264 +3051,328 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="43.0"/>
+    <col customWidth="1" min="4" max="4" width="22.57"/>
     <col customWidth="1" min="5" max="5" width="29.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>175</v>
+        <v>189</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>191</v>
+        <v>217</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D17" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D21" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="23">
@@ -2977,10 +3380,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="24">
@@ -2988,10 +3394,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="25">
@@ -2999,10 +3408,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -3010,10 +3422,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -3021,10 +3436,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -3032,10 +3450,13 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3043,10 +3464,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="30">
@@ -3054,10 +3478,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -3065,10 +3492,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="32">
@@ -3076,10 +3506,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -3087,10 +3520,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>214</v>
+        <v>258</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -3098,10 +3534,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -3109,10 +3548,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="36">
@@ -3120,65 +3562,77 @@
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3204,11 +3658,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="24.57"/>
+    <col customWidth="1" min="4" max="4" width="18.0"/>
+    <col customWidth="1" min="5" max="5" width="29.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2</v>
@@ -3224,39 +3680,48 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>110</v>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>110</v>
+      <c r="A3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>104</v>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>30</v>
@@ -3264,182 +3729,230 @@
       <c r="F4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>238</v>
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>64</v>
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>112</v>
+      <c r="A20" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3460,10 +3973,14 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="22.57"/>
+    <col customWidth="1" min="5" max="5" width="29.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -3479,27 +3996,48 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>243</v>
+      <c r="A2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>130</v>
+      <c r="A3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>244</v>
+      <c r="A4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>30</v>
@@ -3507,51 +4045,112 @@
       <c r="F4" s="15"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>246</v>
+      <c r="A5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>225</v>
+      <c r="A6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
+      <c r="A7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>248</v>
+      <c r="A8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>249</v>
+      <c r="A9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>250</v>
+      <c r="A10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>